--- a/docs/출퇴근 관리.xlsx
+++ b/docs/출퇴근 관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\internship-2021h1\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43A1133-7308-427D-AA5F-EF4F4F7A120B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE71B1D-A922-45D4-BADF-2245C745D14F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDA2AEC8-314C-4CB1-A6CC-67FAA0C694AA}"/>
   </bookViews>
@@ -584,71 +584,71 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -969,7 +969,7 @@
   <dimension ref="B2:L59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -981,33 +981,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8" t="s">
+      <c r="I2" s="20"/>
+      <c r="J2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1026,9 +1026,9 @@
       <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="26"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -1055,9 +1055,9 @@
       <c r="I4" s="4">
         <v>0.75</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="24"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
@@ -1066,15 +1066,27 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
+      <c r="D5" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
@@ -1089,9 +1101,9 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
@@ -1106,9 +1118,9 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
@@ -1121,11 +1133,11 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
@@ -1134,15 +1146,15 @@
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
@@ -1151,15 +1163,15 @@
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
@@ -1174,9 +1186,9 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
@@ -1187,13 +1199,13 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
@@ -1208,9 +1220,9 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
@@ -1225,9 +1237,9 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
@@ -1242,9 +1254,9 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
@@ -1253,15 +1265,15 @@
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
@@ -1270,15 +1282,15 @@
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
@@ -1293,9 +1305,9 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
@@ -1310,9 +1322,9 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
@@ -1327,9 +1339,9 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="14"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
@@ -1344,9 +1356,9 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="14"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
@@ -1359,11 +1371,11 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="14"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
@@ -1372,15 +1384,15 @@
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="24"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="14"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
@@ -1389,15 +1401,15 @@
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="24"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="14"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
@@ -1408,13 +1420,13 @@
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="17"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="24"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="14"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
@@ -1429,9 +1441,9 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="24"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="14"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
@@ -1446,9 +1458,9 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="14"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
@@ -1463,9 +1475,9 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="24"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="14"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
@@ -1474,15 +1486,15 @@
       <c r="C29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="17"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="24"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="14"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
@@ -1491,15 +1503,15 @@
       <c r="C30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="24"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="14"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
@@ -1508,15 +1520,15 @@
       <c r="C31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="24"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="14"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
@@ -1525,15 +1537,15 @@
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="24"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="14"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
@@ -1548,9 +1560,9 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="24"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="14"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
@@ -1565,9 +1577,9 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="24"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="14"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
@@ -1582,9 +1594,9 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="24"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="14"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
@@ -1599,9 +1611,9 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="24"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="14"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
@@ -1610,15 +1622,15 @@
       <c r="C37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="24"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="14"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
@@ -1627,15 +1639,15 @@
       <c r="C38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="24"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="14"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
@@ -1650,9 +1662,9 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="24"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="14"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
@@ -1667,9 +1679,9 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="24"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="14"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
@@ -1684,9 +1696,9 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="24"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="14"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
@@ -1701,9 +1713,9 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="24"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="14"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
@@ -1718,9 +1730,9 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="24"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="14"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
@@ -1729,15 +1741,15 @@
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="24"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="14"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
@@ -1746,15 +1758,15 @@
       <c r="C45" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="24"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="14"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
@@ -1769,9 +1781,9 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="24"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="14"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
@@ -1786,9 +1798,9 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="24"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="14"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
@@ -1803,9 +1815,9 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="24"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="14"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
@@ -1820,9 +1832,9 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="24"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="14"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
@@ -1837,9 +1849,9 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="24"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="14"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
@@ -1848,15 +1860,15 @@
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="16"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="24"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="14"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B52" s="2" t="s">
@@ -1865,15 +1877,15 @@
       <c r="C52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="19"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="24"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="14"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
@@ -1888,9 +1900,9 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="24"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="14"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
@@ -1905,9 +1917,9 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="24"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="14"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
@@ -1922,9 +1934,9 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="24"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="14"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
@@ -1939,9 +1951,9 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="24"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="14"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
@@ -1956,9 +1968,9 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="24"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="14"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B58" s="2" t="s">
@@ -1967,15 +1979,15 @@
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="16"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="24"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="14"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B59" s="2" t="s">
@@ -1984,58 +1996,35 @@
       <c r="C59" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="19"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="24"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="D58:I59"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="D51:I52"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="D44:I45"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="D30:I31"/>
-    <mergeCell ref="D37:I38"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D9:I10"/>
+    <mergeCell ref="D16:I17"/>
+    <mergeCell ref="D23:I24"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J8:L8"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J29:L29"/>
     <mergeCell ref="J22:L22"/>
@@ -2052,23 +2041,46 @@
     <mergeCell ref="J20:L20"/>
     <mergeCell ref="J21:L21"/>
     <mergeCell ref="J23:L23"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D9:I10"/>
-    <mergeCell ref="D16:I17"/>
-    <mergeCell ref="D23:I24"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="D30:I31"/>
+    <mergeCell ref="D37:I38"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="D44:I45"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="D51:I52"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="D58:I59"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="J57:L57"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/출퇴근 관리.xlsx
+++ b/docs/출퇴근 관리.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\internship-2021h1\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asdlt\Desktop\internship-2021h1\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE71B1D-A922-45D4-BADF-2245C745D14F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDF4997-F1D3-4B4C-9BC9-E0E1E3D4508D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDA2AEC8-314C-4CB1-A6CC-67FAA0C694AA}"/>
   </bookViews>
@@ -587,6 +587,39 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -614,40 +647,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -969,7 +969,7 @@
   <dimension ref="B2:L59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -981,33 +981,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="21" t="s">
+      <c r="I2" s="8"/>
+      <c r="J2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="23"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1026,9 +1026,9 @@
       <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -1055,9 +1055,9 @@
       <c r="I4" s="4">
         <v>0.75</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="14"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="25"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
@@ -1084,9 +1084,9 @@
       <c r="I5" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="25"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
@@ -1095,15 +1095,19 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
@@ -1112,15 +1116,19 @@
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="D7" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="14"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
@@ -1129,15 +1137,19 @@
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="D8" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
@@ -1146,15 +1158,15 @@
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="14"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
@@ -1163,15 +1175,15 @@
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
@@ -1180,15 +1192,19 @@
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="D11" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="14"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
@@ -1197,15 +1213,19 @@
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="D12" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
@@ -1214,15 +1234,19 @@
       <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
@@ -1231,15 +1255,19 @@
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="D14" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="25"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
@@ -1248,15 +1276,19 @@
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="D15" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
@@ -1265,15 +1297,15 @@
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="14"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
@@ -1282,15 +1314,15 @@
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="14"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
@@ -1299,15 +1331,19 @@
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="D18" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="14"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="25"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
@@ -1316,15 +1352,19 @@
       <c r="C19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="D19" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="14"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="25"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
@@ -1333,15 +1373,19 @@
       <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="D20" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="14"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="25"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
@@ -1350,15 +1394,19 @@
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="D21" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="14"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="25"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
@@ -1367,15 +1415,19 @@
       <c r="C22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="D22" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="14"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="25"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
@@ -1384,15 +1436,15 @@
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="14"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="25"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
@@ -1401,15 +1453,15 @@
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="14"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
@@ -1418,15 +1470,19 @@
       <c r="C25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="D25" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F25" s="15"/>
-      <c r="G25" s="17"/>
+      <c r="G25" s="16"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="14"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="25"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
@@ -1435,15 +1491,19 @@
       <c r="C26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="D26" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="14"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="25"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
@@ -1452,15 +1512,19 @@
       <c r="C27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="D27" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="14"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="25"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
@@ -1469,15 +1533,19 @@
       <c r="C28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="D28" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="14"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="25"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
@@ -1487,14 +1555,14 @@
         <v>10</v>
       </c>
       <c r="D29" s="15"/>
-      <c r="E29" s="17"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="14"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="25"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
@@ -1503,15 +1571,15 @@
       <c r="C30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="14"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="25"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
@@ -1520,15 +1588,15 @@
       <c r="C31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="14"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="25"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
@@ -1538,14 +1606,14 @@
         <v>2</v>
       </c>
       <c r="D32" s="15"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="14"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="25"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
@@ -1560,9 +1628,9 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="14"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="25"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
@@ -1577,9 +1645,9 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="14"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="25"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
@@ -1594,9 +1662,9 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="14"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="25"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
@@ -1611,9 +1679,9 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="14"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="25"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
@@ -1622,15 +1690,15 @@
       <c r="C37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="14"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="25"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
@@ -1639,15 +1707,15 @@
       <c r="C38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="14"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="25"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
@@ -1662,9 +1730,9 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="14"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="25"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
@@ -1679,9 +1747,9 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="14"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="25"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
@@ -1696,9 +1764,9 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="14"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="25"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
@@ -1713,9 +1781,9 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="14"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="25"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
@@ -1730,9 +1798,9 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="14"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="25"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
@@ -1741,15 +1809,15 @@
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="14"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="25"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
@@ -1758,15 +1826,15 @@
       <c r="C45" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="14"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="25"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
@@ -1781,9 +1849,9 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="14"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="25"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
@@ -1798,9 +1866,9 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="14"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="25"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
@@ -1815,9 +1883,9 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="14"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="25"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
@@ -1832,9 +1900,9 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="14"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="25"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
@@ -1849,9 +1917,9 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="14"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="25"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
@@ -1860,15 +1928,15 @@
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="14"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="25"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B52" s="2" t="s">
@@ -1877,15 +1945,15 @@
       <c r="C52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="14"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="25"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
@@ -1900,9 +1968,9 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="14"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="25"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
@@ -1917,9 +1985,9 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="14"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="25"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
@@ -1934,9 +2002,9 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="14"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="25"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
@@ -1951,9 +2019,9 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="14"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="25"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
@@ -1968,9 +2036,9 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="14"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="25"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B58" s="2" t="s">
@@ -1979,15 +2047,15 @@
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="14"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="25"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B59" s="2" t="s">
@@ -1996,35 +2064,58 @@
       <c r="C59" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="14"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D9:I10"/>
-    <mergeCell ref="D16:I17"/>
-    <mergeCell ref="D23:I24"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="D58:I59"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="D51:I52"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="D44:I45"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="D30:I31"/>
+    <mergeCell ref="D37:I38"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J30:L30"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J29:L29"/>
     <mergeCell ref="J22:L22"/>
@@ -2041,46 +2132,23 @@
     <mergeCell ref="J20:L20"/>
     <mergeCell ref="J21:L21"/>
     <mergeCell ref="J23:L23"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="D30:I31"/>
-    <mergeCell ref="D37:I38"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="D44:I45"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="D51:I52"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="D58:I59"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D9:I10"/>
+    <mergeCell ref="D16:I17"/>
+    <mergeCell ref="D23:I24"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/출퇴근 관리.xlsx
+++ b/docs/출퇴근 관리.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asdlt\Desktop\internship-2021h1\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foxta\Documents\GitHub\internship-2021h1\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDF4997-F1D3-4B4C-9BC9-E0E1E3D4508D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178967C1-4261-438C-AB66-546BEB9D6AE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDA2AEC8-314C-4CB1-A6CC-67FAA0C694AA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FDA2AEC8-314C-4CB1-A6CC-67FAA0C694AA}"/>
   </bookViews>
   <sheets>
     <sheet name="출퇴근 관리" sheetId="1" r:id="rId1"/>
@@ -587,6 +587,42 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -612,42 +648,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -969,45 +969,45 @@
   <dimension ref="B2:L59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="G25" sqref="G25:G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" customWidth="1"/>
-    <col min="5" max="9" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" customWidth="1"/>
+    <col min="5" max="9" width="5.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="20"/>
+      <c r="J2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="23"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1026,11 +1026,11 @@
       <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="14"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J3" s="24"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="26"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1055,11 +1055,11 @@
       <c r="I4" s="4">
         <v>0.75</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="25"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J4" s="12"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1084,11 +1084,11 @@
       <c r="I5" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="25"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J5" s="12"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1101,15 +1101,19 @@
       <c r="E6" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="25"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1122,15 +1126,19 @@
       <c r="E7" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="F7" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="25"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J7" s="12"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>44</v>
       </c>
@@ -1143,49 +1151,53 @@
       <c r="E8" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="F8" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="25"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
@@ -1198,15 +1210,19 @@
       <c r="E11" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="F11" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J11" s="12"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1219,15 +1235,19 @@
       <c r="E12" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="F12" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J12" s="12"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1240,15 +1260,19 @@
       <c r="E13" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="F13" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="25"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J13" s="12"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1261,15 +1285,19 @@
       <c r="E14" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="F14" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="25"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J14" s="12"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1282,49 +1310,53 @@
       <c r="E15" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="F15" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="25"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1337,15 +1369,19 @@
       <c r="E18" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="F18" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="25"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J18" s="12"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
@@ -1358,15 +1394,19 @@
       <c r="E19" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="F19" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="25"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J19" s="12"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
         <v>32</v>
       </c>
@@ -1379,15 +1419,19 @@
       <c r="E20" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="F20" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="25"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J20" s="12"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="14"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1400,15 +1444,19 @@
       <c r="E21" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="F21" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="25"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J21" s="12"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="14"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B22" s="1" t="s">
         <v>34</v>
       </c>
@@ -1421,49 +1469,53 @@
       <c r="E22" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="F22" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="25"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J22" s="12"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="14"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="25"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="14"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="25"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="14"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B25" s="1" t="s">
         <v>37</v>
       </c>
@@ -1476,15 +1528,19 @@
       <c r="E25" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
+      <c r="F25" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="25"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J25" s="12"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="14"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
         <v>38</v>
       </c>
@@ -1497,15 +1553,19 @@
       <c r="E26" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="F26" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="25"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J26" s="12"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="14"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B27" s="1" t="s">
         <v>39</v>
       </c>
@@ -1518,15 +1578,19 @@
       <c r="E27" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="F27" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="25"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J27" s="12"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="14"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
         <v>40</v>
       </c>
@@ -1539,15 +1603,19 @@
       <c r="E28" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="F28" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="25"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J28" s="12"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="14"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B29" s="1" t="s">
         <v>41</v>
       </c>
@@ -1555,50 +1623,50 @@
         <v>10</v>
       </c>
       <c r="D29" s="15"/>
-      <c r="E29" s="16"/>
+      <c r="E29" s="17"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="25"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J29" s="12"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="14"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B30" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="25"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="14"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B31" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="25"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="14"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B32" s="1" t="s">
         <v>45</v>
       </c>
@@ -1606,16 +1674,16 @@
         <v>2</v>
       </c>
       <c r="D32" s="15"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="25"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="14"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>46</v>
       </c>
@@ -1628,11 +1696,11 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="25"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J33" s="12"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="14"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B34" s="1" t="s">
         <v>47</v>
       </c>
@@ -1645,11 +1713,11 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="25"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J34" s="12"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="14"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B35" s="1" t="s">
         <v>48</v>
       </c>
@@ -1662,11 +1730,11 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="25"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J35" s="12"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="14"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
         <v>49</v>
       </c>
@@ -1679,45 +1747,45 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="25"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J36" s="12"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="14"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B37" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="25"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D37" s="6"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="14"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B38" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="25"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="14"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B39" s="1" t="s">
         <v>52</v>
       </c>
@@ -1730,11 +1798,11 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="25"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J39" s="12"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="14"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
         <v>53</v>
       </c>
@@ -1747,11 +1815,11 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="25"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J40" s="12"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="14"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B41" s="1" t="s">
         <v>54</v>
       </c>
@@ -1764,11 +1832,11 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="25"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J41" s="12"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="14"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B42" s="1" t="s">
         <v>55</v>
       </c>
@@ -1781,11 +1849,11 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="25"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J42" s="12"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="14"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
         <v>56</v>
       </c>
@@ -1798,45 +1866,45 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="25"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J43" s="12"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="14"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B44" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="25"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D44" s="6"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="14"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B45" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="25"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D45" s="9"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="14"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B46" s="1" t="s">
         <v>59</v>
       </c>
@@ -1849,11 +1917,11 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="25"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J46" s="12"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="14"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
         <v>60</v>
       </c>
@@ -1866,11 +1934,11 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="25"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J47" s="12"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="14"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B48" s="1" t="s">
         <v>61</v>
       </c>
@@ -1883,11 +1951,11 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="25"/>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J48" s="12"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="14"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
         <v>62</v>
       </c>
@@ -1900,11 +1968,11 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="25"/>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J49" s="12"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="14"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B50" s="1" t="s">
         <v>63</v>
       </c>
@@ -1917,45 +1985,45 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="25"/>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J50" s="12"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="14"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B51" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="25"/>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D51" s="6"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="14"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B52" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="20"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="25"/>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D52" s="9"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="14"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
         <v>66</v>
       </c>
@@ -1968,11 +2036,11 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="25"/>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J53" s="12"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="14"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B54" s="1" t="s">
         <v>67</v>
       </c>
@@ -1985,11 +2053,11 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="25"/>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J54" s="12"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="14"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B55" s="1" t="s">
         <v>68</v>
       </c>
@@ -2002,11 +2070,11 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="24"/>
-      <c r="L55" s="25"/>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J55" s="12"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="14"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
         <v>69</v>
       </c>
@@ -2019,11 +2087,11 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="25"/>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J56" s="12"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="14"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B57" s="1" t="s">
         <v>70</v>
       </c>
@@ -2036,86 +2104,62 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="25"/>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J57" s="12"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="14"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B58" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="17"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="25"/>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D58" s="6"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="14"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B59" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="20"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="25"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="D58:I59"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="D51:I52"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="D44:I45"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="D30:I31"/>
-    <mergeCell ref="D37:I38"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="J30:L30"/>
+  <mergeCells count="72">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D9:I10"/>
+    <mergeCell ref="D16:I17"/>
+    <mergeCell ref="D23:I24"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J8:L8"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J29:L29"/>
     <mergeCell ref="J22:L22"/>
@@ -2132,23 +2176,46 @@
     <mergeCell ref="J20:L20"/>
     <mergeCell ref="J21:L21"/>
     <mergeCell ref="J23:L23"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D9:I10"/>
-    <mergeCell ref="D16:I17"/>
-    <mergeCell ref="D23:I24"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="D30:I31"/>
+    <mergeCell ref="D37:I38"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="D44:I45"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="D51:I52"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="D58:I59"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="J57:L57"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/출퇴근 관리.xlsx
+++ b/docs/출퇴근 관리.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foxta\Documents\GitHub\internship-2021h1\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allen/Documents/GitHub/internship-2021h1/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178967C1-4261-438C-AB66-546BEB9D6AE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A1C8C5-FE01-EE4D-84C0-656A580F4243}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FDA2AEC8-314C-4CB1-A6CC-67FAA0C694AA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{FDA2AEC8-314C-4CB1-A6CC-67FAA0C694AA}"/>
   </bookViews>
   <sheets>
     <sheet name="출퇴근 관리" sheetId="1" r:id="rId1"/>
@@ -277,7 +277,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,7 +568,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -584,8 +584,38 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -614,40 +644,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -968,46 +965,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A957A3-64B0-477F-85CE-B22351B8E8ED}">
   <dimension ref="B2:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25:G28"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28:I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" customWidth="1"/>
-    <col min="5" max="9" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" customWidth="1"/>
+    <col min="5" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="2:12">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="21" t="s">
+      <c r="I2" s="7"/>
+      <c r="J2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="23"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1026,11 +1023,11 @@
       <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
+    </row>
+    <row r="4" spans="2:12">
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1055,11 +1052,11 @@
       <c r="I4" s="4">
         <v>0.75</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="14"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="J4" s="22"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24"/>
+    </row>
+    <row r="5" spans="2:12">
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1084,11 +1081,11 @@
       <c r="I5" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="J5" s="22"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="24"/>
+    </row>
+    <row r="6" spans="2:12">
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1107,13 +1104,17 @@
       <c r="G6" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="H6" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J6" s="22"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="24"/>
+    </row>
+    <row r="7" spans="2:12">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1132,13 +1133,17 @@
       <c r="G7" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="14"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="H7" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J7" s="22"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="24"/>
+    </row>
+    <row r="8" spans="2:12">
       <c r="B8" s="1" t="s">
         <v>44</v>
       </c>
@@ -1157,47 +1162,51 @@
       <c r="G8" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="H8" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J8" s="22"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
+    </row>
+    <row r="9" spans="2:12">
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
+    </row>
+    <row r="10" spans="2:12">
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
+    </row>
+    <row r="11" spans="2:12">
       <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
@@ -1216,13 +1225,17 @@
       <c r="G11" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="14"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="H11" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J11" s="22"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
+    </row>
+    <row r="12" spans="2:12">
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1241,13 +1254,17 @@
       <c r="G12" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="H12" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J12" s="22"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
+    </row>
+    <row r="13" spans="2:12">
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1266,13 +1283,17 @@
       <c r="G13" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="H13" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J13" s="22"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="24"/>
+    </row>
+    <row r="14" spans="2:12">
       <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1291,13 +1312,17 @@
       <c r="G14" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="H14" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="24"/>
+    </row>
+    <row r="15" spans="2:12">
       <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1316,47 +1341,51 @@
       <c r="G15" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="H15" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J15" s="22"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="24"/>
+    </row>
+    <row r="16" spans="2:12">
       <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="14"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="24"/>
+    </row>
+    <row r="17" spans="2:12">
       <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="14"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="24"/>
+    </row>
+    <row r="18" spans="2:12">
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1375,13 +1404,17 @@
       <c r="G18" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="14"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="H18" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J18" s="22"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="24"/>
+    </row>
+    <row r="19" spans="2:12">
       <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
@@ -1400,13 +1433,17 @@
       <c r="G19" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="14"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="H19" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J19" s="22"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="24"/>
+    </row>
+    <row r="20" spans="2:12">
       <c r="B20" s="1" t="s">
         <v>32</v>
       </c>
@@ -1425,13 +1462,17 @@
       <c r="G20" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="14"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="H20" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J20" s="22"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="24"/>
+    </row>
+    <row r="21" spans="2:12">
       <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1450,13 +1491,17 @@
       <c r="G21" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="14"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="H21" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J21" s="22"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="24"/>
+    </row>
+    <row r="22" spans="2:12">
       <c r="B22" s="1" t="s">
         <v>34</v>
       </c>
@@ -1475,47 +1520,51 @@
       <c r="G22" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="14"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="H22" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J22" s="22"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="24"/>
+    </row>
+    <row r="23" spans="2:12">
       <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="14"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="24"/>
+    </row>
+    <row r="24" spans="2:12">
       <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="14"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="24"/>
+    </row>
+    <row r="25" spans="2:12">
       <c r="B25" s="1" t="s">
         <v>37</v>
       </c>
@@ -1534,13 +1583,17 @@
       <c r="G25" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="14"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="H25" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J25" s="22"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="24"/>
+    </row>
+    <row r="26" spans="2:12">
       <c r="B26" s="1" t="s">
         <v>38</v>
       </c>
@@ -1559,13 +1612,17 @@
       <c r="G26" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="14"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="H26" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J26" s="22"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="24"/>
+    </row>
+    <row r="27" spans="2:12">
       <c r="B27" s="1" t="s">
         <v>39</v>
       </c>
@@ -1584,13 +1641,17 @@
       <c r="G27" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="14"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="H27" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J27" s="22"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="24"/>
+    </row>
+    <row r="28" spans="2:12">
       <c r="B28" s="1" t="s">
         <v>40</v>
       </c>
@@ -1609,81 +1670,85 @@
       <c r="G28" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="14"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="H28" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J28" s="22"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="24"/>
+    </row>
+    <row r="29" spans="2:12">
       <c r="B29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="17"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="14"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="J29" s="22"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="24"/>
+    </row>
+    <row r="30" spans="2:12">
       <c r="B30" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="14"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="24"/>
+    </row>
+    <row r="31" spans="2:12">
       <c r="B31" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="14"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D31" s="19"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="24"/>
+    </row>
+    <row r="32" spans="2:12">
       <c r="B32" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="14"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D32" s="14"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="24"/>
+    </row>
+    <row r="33" spans="2:12">
       <c r="B33" s="1" t="s">
         <v>46</v>
       </c>
@@ -1696,11 +1761,11 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="14"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="J33" s="22"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="24"/>
+    </row>
+    <row r="34" spans="2:12">
       <c r="B34" s="1" t="s">
         <v>47</v>
       </c>
@@ -1713,11 +1778,11 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="14"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="J34" s="22"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="24"/>
+    </row>
+    <row r="35" spans="2:12">
       <c r="B35" s="1" t="s">
         <v>48</v>
       </c>
@@ -1730,11 +1795,11 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="14"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="J35" s="22"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="24"/>
+    </row>
+    <row r="36" spans="2:12">
       <c r="B36" s="1" t="s">
         <v>49</v>
       </c>
@@ -1747,45 +1812,45 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="14"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="J36" s="22"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="24"/>
+    </row>
+    <row r="37" spans="2:12">
       <c r="B37" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="14"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D37" s="16"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="24"/>
+    </row>
+    <row r="38" spans="2:12">
       <c r="B38" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="14"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D38" s="19"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="24"/>
+    </row>
+    <row r="39" spans="2:12">
       <c r="B39" s="1" t="s">
         <v>52</v>
       </c>
@@ -1798,11 +1863,11 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="14"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="J39" s="22"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="24"/>
+    </row>
+    <row r="40" spans="2:12">
       <c r="B40" s="1" t="s">
         <v>53</v>
       </c>
@@ -1815,11 +1880,11 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="14"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="J40" s="22"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="24"/>
+    </row>
+    <row r="41" spans="2:12">
       <c r="B41" s="1" t="s">
         <v>54</v>
       </c>
@@ -1832,11 +1897,11 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="14"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="J41" s="22"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="24"/>
+    </row>
+    <row r="42" spans="2:12">
       <c r="B42" s="1" t="s">
         <v>55</v>
       </c>
@@ -1849,11 +1914,11 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="14"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="J42" s="22"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="24"/>
+    </row>
+    <row r="43" spans="2:12">
       <c r="B43" s="1" t="s">
         <v>56</v>
       </c>
@@ -1866,45 +1931,45 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="14"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="J43" s="22"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="24"/>
+    </row>
+    <row r="44" spans="2:12">
       <c r="B44" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="14"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D44" s="16"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="24"/>
+    </row>
+    <row r="45" spans="2:12">
       <c r="B45" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="14"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D45" s="19"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="24"/>
+    </row>
+    <row r="46" spans="2:12">
       <c r="B46" s="1" t="s">
         <v>59</v>
       </c>
@@ -1917,11 +1982,11 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="14"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="J46" s="22"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="24"/>
+    </row>
+    <row r="47" spans="2:12">
       <c r="B47" s="1" t="s">
         <v>60</v>
       </c>
@@ -1934,11 +1999,11 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="14"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="J47" s="22"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="24"/>
+    </row>
+    <row r="48" spans="2:12">
       <c r="B48" s="1" t="s">
         <v>61</v>
       </c>
@@ -1951,11 +2016,11 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="14"/>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="J48" s="22"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="24"/>
+    </row>
+    <row r="49" spans="2:12">
       <c r="B49" s="1" t="s">
         <v>62</v>
       </c>
@@ -1968,11 +2033,11 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="14"/>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="J49" s="22"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="24"/>
+    </row>
+    <row r="50" spans="2:12">
       <c r="B50" s="1" t="s">
         <v>63</v>
       </c>
@@ -1985,45 +2050,45 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="14"/>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="J50" s="22"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="24"/>
+    </row>
+    <row r="51" spans="2:12">
       <c r="B51" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="14"/>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D51" s="16"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="24"/>
+    </row>
+    <row r="52" spans="2:12">
       <c r="B52" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="14"/>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D52" s="19"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="24"/>
+    </row>
+    <row r="53" spans="2:12">
       <c r="B53" s="1" t="s">
         <v>66</v>
       </c>
@@ -2036,11 +2101,11 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="14"/>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="J53" s="22"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="24"/>
+    </row>
+    <row r="54" spans="2:12">
       <c r="B54" s="1" t="s">
         <v>67</v>
       </c>
@@ -2053,11 +2118,11 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="14"/>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="J54" s="22"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="24"/>
+    </row>
+    <row r="55" spans="2:12">
       <c r="B55" s="1" t="s">
         <v>68</v>
       </c>
@@ -2070,11 +2135,11 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="14"/>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="J55" s="22"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="24"/>
+    </row>
+    <row r="56" spans="2:12">
       <c r="B56" s="1" t="s">
         <v>69</v>
       </c>
@@ -2087,11 +2152,11 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="14"/>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="J56" s="22"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="24"/>
+    </row>
+    <row r="57" spans="2:12">
       <c r="B57" s="1" t="s">
         <v>70</v>
       </c>
@@ -2104,52 +2169,96 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="14"/>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="J57" s="22"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="24"/>
+    </row>
+    <row r="58" spans="2:12">
       <c r="B58" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="14"/>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D58" s="16"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="24"/>
+    </row>
+    <row r="59" spans="2:12">
       <c r="B59" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="14"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D58:I59"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="D51:I52"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="D44:I45"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="D30:I31"/>
+    <mergeCell ref="D37:I38"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D9:I10"/>
     <mergeCell ref="D16:I17"/>
@@ -2166,56 +2275,12 @@
     <mergeCell ref="J25:L25"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="D30:I31"/>
-    <mergeCell ref="D37:I38"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="D44:I45"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="D51:I52"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="D58:I59"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/출퇴근 관리.xlsx
+++ b/docs/출퇴근 관리.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allen/Documents/GitHub/internship-2021h1/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asdlt\Desktop\internship-2021h1\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A1C8C5-FE01-EE4D-84C0-656A580F4243}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCD55DD-068D-4785-971C-515848F1F6C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{FDA2AEC8-314C-4CB1-A6CC-67FAA0C694AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDA2AEC8-314C-4CB1-A6CC-67FAA0C694AA}"/>
   </bookViews>
   <sheets>
     <sheet name="출퇴근 관리" sheetId="1" r:id="rId1"/>
@@ -277,7 +277,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -584,6 +584,42 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -609,42 +645,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -966,45 +966,45 @@
   <dimension ref="B2:L59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28:I28"/>
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" customWidth="1"/>
-    <col min="5" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.125" customWidth="1"/>
+    <col min="5" max="9" width="5.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8" t="s">
+      <c r="I2" s="19"/>
+      <c r="J2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1023,11 +1023,11 @@
       <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-    </row>
-    <row r="4" spans="2:12">
+      <c r="J3" s="23"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="25"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1052,11 +1052,11 @@
       <c r="I4" s="4">
         <v>0.75</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="24"/>
-    </row>
-    <row r="5" spans="2:12">
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="13"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1081,11 +1081,11 @@
       <c r="I5" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-    </row>
-    <row r="6" spans="2:12">
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="13"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1110,11 +1110,11 @@
       <c r="I6" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
-    </row>
-    <row r="7" spans="2:12">
+      <c r="J6" s="11"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1139,11 +1139,11 @@
       <c r="I7" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
-    </row>
-    <row r="8" spans="2:12">
+      <c r="J7" s="11"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="13"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>44</v>
       </c>
@@ -1168,45 +1168,45 @@
       <c r="I8" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
-    </row>
-    <row r="9" spans="2:12">
+      <c r="J8" s="11"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
-    </row>
-    <row r="10" spans="2:12">
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-    </row>
-    <row r="11" spans="2:12">
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
@@ -1231,11 +1231,11 @@
       <c r="I11" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
-    </row>
-    <row r="12" spans="2:12">
+      <c r="J11" s="11"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1260,11 +1260,11 @@
       <c r="I12" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
-    </row>
-    <row r="13" spans="2:12">
+      <c r="J12" s="11"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1289,11 +1289,11 @@
       <c r="I13" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
-    </row>
-    <row r="14" spans="2:12">
+      <c r="J13" s="11"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1318,11 +1318,11 @@
       <c r="I14" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
-    </row>
-    <row r="15" spans="2:12">
+      <c r="J14" s="11"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1347,45 +1347,45 @@
       <c r="I15" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
-    </row>
-    <row r="16" spans="2:12">
+      <c r="J15" s="11"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="13"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
-    </row>
-    <row r="17" spans="2:12">
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="13"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-    </row>
-    <row r="18" spans="2:12">
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="13"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1410,11 +1410,11 @@
       <c r="I18" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
-    </row>
-    <row r="19" spans="2:12">
+      <c r="J18" s="11"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
@@ -1439,11 +1439,11 @@
       <c r="I19" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J19" s="22"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
-    </row>
-    <row r="20" spans="2:12">
+      <c r="J19" s="11"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="13"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>32</v>
       </c>
@@ -1468,11 +1468,11 @@
       <c r="I20" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J20" s="22"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
-    </row>
-    <row r="21" spans="2:12">
+      <c r="J20" s="11"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="13"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1497,11 +1497,11 @@
       <c r="I21" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
-    </row>
-    <row r="22" spans="2:12">
+      <c r="J21" s="11"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="13"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>34</v>
       </c>
@@ -1526,45 +1526,45 @@
       <c r="I22" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J22" s="22"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
-    </row>
-    <row r="23" spans="2:12">
+      <c r="J22" s="11"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="13"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="24"/>
-    </row>
-    <row r="24" spans="2:12">
+      <c r="D23" s="5"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="13"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="24"/>
-    </row>
-    <row r="25" spans="2:12">
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="13"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>37</v>
       </c>
@@ -1589,11 +1589,11 @@
       <c r="I25" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J25" s="22"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="24"/>
-    </row>
-    <row r="26" spans="2:12">
+      <c r="J25" s="11"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="13"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>38</v>
       </c>
@@ -1618,11 +1618,11 @@
       <c r="I26" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J26" s="22"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="24"/>
-    </row>
-    <row r="27" spans="2:12">
+      <c r="J26" s="11"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="13"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>39</v>
       </c>
@@ -1647,11 +1647,11 @@
       <c r="I27" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J27" s="22"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
-    </row>
-    <row r="28" spans="2:12">
+      <c r="J27" s="11"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="13"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>40</v>
       </c>
@@ -1676,62 +1676,74 @@
       <c r="I28" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="J28" s="22"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="24"/>
-    </row>
-    <row r="29" spans="2:12">
+      <c r="J28" s="11"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="13"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="24"/>
-    </row>
-    <row r="30" spans="2:12">
+      <c r="D29" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J29" s="11"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="13"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="24"/>
-    </row>
-    <row r="31" spans="2:12">
+      <c r="D30" s="5"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="13"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="24"/>
-    </row>
-    <row r="32" spans="2:12">
+      <c r="D31" s="8"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="13"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>45</v>
       </c>
@@ -1739,16 +1751,16 @@
         <v>2</v>
       </c>
       <c r="D32" s="14"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="24"/>
-    </row>
-    <row r="33" spans="2:12">
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="13"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>46</v>
       </c>
@@ -1761,11 +1773,11 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="24"/>
-    </row>
-    <row r="34" spans="2:12">
+      <c r="J33" s="11"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="13"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>47</v>
       </c>
@@ -1778,11 +1790,11 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="24"/>
-    </row>
-    <row r="35" spans="2:12">
+      <c r="J34" s="11"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="13"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>48</v>
       </c>
@@ -1795,11 +1807,11 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="24"/>
-    </row>
-    <row r="36" spans="2:12">
+      <c r="J35" s="11"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="13"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>49</v>
       </c>
@@ -1812,45 +1824,45 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="24"/>
-    </row>
-    <row r="37" spans="2:12">
+      <c r="J36" s="11"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="13"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="24"/>
-    </row>
-    <row r="38" spans="2:12">
+      <c r="D37" s="5"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="13"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="24"/>
-    </row>
-    <row r="39" spans="2:12">
+      <c r="D38" s="8"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="13"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>52</v>
       </c>
@@ -1863,11 +1875,11 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="24"/>
-    </row>
-    <row r="40" spans="2:12">
+      <c r="J39" s="11"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="13"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>53</v>
       </c>
@@ -1880,11 +1892,11 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="24"/>
-    </row>
-    <row r="41" spans="2:12">
+      <c r="J40" s="11"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="13"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>54</v>
       </c>
@@ -1897,11 +1909,11 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="24"/>
-    </row>
-    <row r="42" spans="2:12">
+      <c r="J41" s="11"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="13"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
         <v>55</v>
       </c>
@@ -1914,11 +1926,11 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="24"/>
-    </row>
-    <row r="43" spans="2:12">
+      <c r="J42" s="11"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="13"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
         <v>56</v>
       </c>
@@ -1931,45 +1943,45 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="24"/>
-    </row>
-    <row r="44" spans="2:12">
+      <c r="J43" s="11"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="13"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="24"/>
-    </row>
-    <row r="45" spans="2:12">
+      <c r="D44" s="5"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="13"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="24"/>
-    </row>
-    <row r="46" spans="2:12">
+      <c r="D45" s="8"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="13"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
         <v>59</v>
       </c>
@@ -1982,11 +1994,11 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="24"/>
-    </row>
-    <row r="47" spans="2:12">
+      <c r="J46" s="11"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="13"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
         <v>60</v>
       </c>
@@ -1999,11 +2011,11 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="24"/>
-    </row>
-    <row r="48" spans="2:12">
+      <c r="J47" s="11"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="13"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
         <v>61</v>
       </c>
@@ -2016,11 +2028,11 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="24"/>
-    </row>
-    <row r="49" spans="2:12">
+      <c r="J48" s="11"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="13"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
         <v>62</v>
       </c>
@@ -2033,11 +2045,11 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="24"/>
-    </row>
-    <row r="50" spans="2:12">
+      <c r="J49" s="11"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="13"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
         <v>63</v>
       </c>
@@ -2050,45 +2062,45 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="24"/>
-    </row>
-    <row r="51" spans="2:12">
+      <c r="J50" s="11"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="13"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="16"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="24"/>
-    </row>
-    <row r="52" spans="2:12">
+      <c r="D51" s="5"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="13"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B52" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="19"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="24"/>
-    </row>
-    <row r="53" spans="2:12">
+      <c r="D52" s="8"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="13"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
         <v>66</v>
       </c>
@@ -2101,11 +2113,11 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="24"/>
-    </row>
-    <row r="54" spans="2:12">
+      <c r="J53" s="11"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="13"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>67</v>
       </c>
@@ -2118,11 +2130,11 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="24"/>
-    </row>
-    <row r="55" spans="2:12">
+      <c r="J54" s="11"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="13"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
         <v>68</v>
       </c>
@@ -2135,11 +2147,11 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="24"/>
-    </row>
-    <row r="56" spans="2:12">
+      <c r="J55" s="11"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="13"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
         <v>69</v>
       </c>
@@ -2152,11 +2164,11 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="24"/>
-    </row>
-    <row r="57" spans="2:12">
+      <c r="J56" s="11"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="13"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
         <v>70</v>
       </c>
@@ -2169,97 +2181,52 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="24"/>
-    </row>
-    <row r="58" spans="2:12">
+      <c r="J57" s="11"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="13"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B58" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="16"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="24"/>
-    </row>
-    <row r="59" spans="2:12">
+      <c r="D58" s="5"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="13"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B59" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="19"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="24"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="D58:I59"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="D51:I52"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="D44:I45"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="D30:I31"/>
-    <mergeCell ref="D37:I38"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="D29:E29"/>
+  <mergeCells count="71">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="D9:I10"/>
     <mergeCell ref="D16:I17"/>
     <mergeCell ref="D23:I24"/>
@@ -2275,12 +2242,56 @@
     <mergeCell ref="J25:L25"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="J17:L17"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="D30:I31"/>
+    <mergeCell ref="D37:I38"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="D44:I45"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="D51:I52"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="D58:I59"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="J57:L57"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
